--- a/data/trans_orig/IP1004-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4510F601-A4EB-4106-88BE-090D2ADFEDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C94B42-34E8-4A04-A737-B78BC09E23F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{101403D9-2387-49A0-9B5B-DF52F3CAF283}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{066DAE2A-4DAB-4A92-BD88-390E0A05C891}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +103,10 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>6,25%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -115,13 +118,16 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>93,75%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -130,7 +136,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,93%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -142,13 +148,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -157,25 +163,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,12%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -190,13 +196,13 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -205,70 +211,76 @@
     <t>99,61%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>98,57%</t>
@@ -277,13 +289,13 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>97,47%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -298,7 +310,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -310,34 +322,34 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,37%</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -346,16 +358,16 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,93%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -364,7 +376,7 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,07%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -373,16 +385,16 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,44%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -406,61 +418,49 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>99,64%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,66%</t>
+    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D7E72D-9E17-48DB-8647-3297DE1242AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8189476-7B22-4C19-A83A-DFA3FAFEE94C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1148,10 +1148,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -1175,13 +1175,13 @@
         <v>2044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1196,13 @@
         <v>84800</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
@@ -1214,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -1226,13 +1226,13 @@
         <v>175668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1300,13 +1300,13 @@
         <v>1211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1315,13 +1315,13 @@
         <v>732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1330,13 +1330,13 @@
         <v>1943</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,10 +1351,10 @@
         <v>475780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -1366,10 +1366,10 @@
         <v>415355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -1381,13 +1381,13 @@
         <v>891135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1461,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1470,13 +1470,13 @@
         <v>683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -1485,13 +1485,13 @@
         <v>683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1521,10 +1521,10 @@
         <v>173383</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1536,10 +1536,10 @@
         <v>331522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1610,13 +1610,13 @@
         <v>3255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>1415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1640,13 +1640,13 @@
         <v>4671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1661,13 @@
         <v>719445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -1676,10 +1676,10 @@
         <v>679606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1691,13 +1691,13 @@
         <v>1399050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,7 +1753,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DCDA33-161E-4CCD-B8D0-6C34FD6555F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B63A738-9AA8-474A-901C-A10E62FB1001}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1790,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2046,13 +2046,13 @@
         <v>857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2076,13 +2076,13 @@
         <v>857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,10 +2097,10 @@
         <v>82680</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2127,10 +2127,10 @@
         <v>174568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2201,13 +2201,13 @@
         <v>744</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2231,13 +2231,13 @@
         <v>744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,10 +2252,10 @@
         <v>491660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2270,7 +2270,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -2282,10 +2282,10 @@
         <v>941359</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2356,13 +2356,13 @@
         <v>777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2371,13 +2371,13 @@
         <v>790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2386,13 +2386,13 @@
         <v>1568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,10 +2407,10 @@
         <v>170784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2422,10 +2422,10 @@
         <v>164550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2437,10 +2437,10 @@
         <v>335333</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2511,13 +2511,13 @@
         <v>2379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2526,13 +2526,13 @@
         <v>790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2541,13 +2541,13 @@
         <v>3170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,13 +2562,13 @@
         <v>745763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>1017</v>
@@ -2577,10 +2577,10 @@
         <v>706138</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2592,13 +2592,13 @@
         <v>1451900</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,7 +2654,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80CC38C-000B-415F-898F-807A27341B06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7088E35E-B437-4CB6-AD3D-B2881DDB9D92}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3019,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3096,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3105,13 +3105,13 @@
         <v>1360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3120,13 +3120,13 @@
         <v>1360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -3156,10 +3156,10 @@
         <v>470930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3171,10 +3171,10 @@
         <v>959665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3251,7 +3251,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3314,7 +3314,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3329,7 +3329,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3406,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3415,13 +3415,13 @@
         <v>1360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3430,13 +3430,13 @@
         <v>1360</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3466,10 +3466,10 @@
         <v>703011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1004-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1004-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8C94B42-34E8-4A04-A737-B78BC09E23F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48F7175-F160-4E08-8DB0-91BB4E9201A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{066DAE2A-4DAB-4A92-BD88-390E0A05C891}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8BC0692F-2421-433A-B3E5-BEB5ADA42DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="131">
   <si>
     <t>Menores según si padecen diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,22 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,46 +103,19 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>98,85%</t>
@@ -139,22 +124,19 @@
     <t>96,97%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,22%</t>
@@ -163,25 +145,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -190,255 +172,243 @@
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen diabetes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,29%</t>
   </si>
   <si>
@@ -448,19 +418,19 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -872,8 +842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8189476-7B22-4C19-A83A-DFA3FAFEE94C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2606779F-6A9B-4219-A6A8-C30E72159A4F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1005,81 +975,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2044</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="I5" s="7">
+        <v>84801</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>175668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1088,151 +1062,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2044</v>
+        <v>732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2044</v>
+        <v>1943</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>84800</v>
+        <v>415355</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>717</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>475780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>263</v>
+        <v>1344</v>
       </c>
       <c r="N8" s="7">
-        <v>175668</v>
+        <v>891135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,153 +1217,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1211</v>
+        <v>683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>732</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>683</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1943</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>717</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>475780</v>
+        <v>173383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>415355</v>
+        <v>158138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1344</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>891135</v>
+        <v>331522</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,153 +1372,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>683</v>
+        <v>3255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>683</v>
+        <v>4671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>158138</v>
+        <v>679606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>253</v>
+        <v>1080</v>
       </c>
       <c r="I14" s="7">
-        <v>173383</v>
+        <v>718719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2096</v>
       </c>
       <c r="N14" s="7">
-        <v>331522</v>
+        <v>1398324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,216 +1527,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3255</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1415</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4671</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D17" s="7">
-        <v>719445</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679606</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1399050</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1773,8 +1593,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B63A738-9AA8-474A-901C-A10E62FB1001}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7791FB33-10C2-41A9-A2F7-74568DC08760}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1790,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1903,84 +1723,88 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>857</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82680</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174568</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,151 +1813,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>857</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>744</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>857</v>
+        <v>744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>651</v>
       </c>
       <c r="D8" s="7">
-        <v>82680</v>
+        <v>449700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>704</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>491660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1355</v>
       </c>
       <c r="N8" s="7">
-        <v>174568</v>
+        <v>941359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,54 +1968,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2198,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -2210,25 +2036,25 @@
         <v>85</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>744</v>
+        <v>1568</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>87</v>
@@ -2243,13 +2069,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>704</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>491660</v>
+        <v>164550</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>89</v>
@@ -2258,28 +2084,28 @@
         <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>651</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>449700</v>
+        <v>170784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>1355</v>
+        <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>941359</v>
+        <v>335333</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>92</v>
@@ -2288,7 +2114,7 @@
         <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,54 +2123,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2353,97 +2179,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>790</v>
+        <v>2379</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1568</v>
+        <v>3170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="7">
-        <v>170784</v>
+        <v>706138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>1062</v>
       </c>
       <c r="I14" s="7">
-        <v>164550</v>
+        <v>745122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>475</v>
+        <v>2079</v>
       </c>
       <c r="N14" s="7">
-        <v>335333</v>
+        <v>1451259</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,216 +2278,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2379</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>790</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3170</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D17" s="7">
-        <v>745763</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706138</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1451900</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
+      <c r="A16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2674,8 +2344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7088E35E-B437-4CB6-AD3D-B2881DDB9D92}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADD6785-01E5-45A9-9190-E4663C9DA0FF}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2691,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2794,86 +2464,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,66 +2564,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2956,73 +2644,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>712</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>470930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1407</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>959665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,54 +2719,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3096,88 +2784,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1360</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>712</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>470930</v>
+        <v>187495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1407</v>
+        <v>529</v>
       </c>
       <c r="N11" s="7">
-        <v>959665</v>
+        <v>360197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,72 +2874,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3266,73 +2954,73 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1059</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>703011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>529</v>
+        <v>2124</v>
       </c>
       <c r="N14" s="7">
-        <v>360197</v>
+        <v>1447855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,216 +3029,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1360</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1360</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D17" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I17" s="7">
-        <v>703011</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1447855</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>72</v>
+      <c r="A16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
